--- a/01_資料初步彙整/02_路段旅行速率/旅行速率資料彙整.xlsx
+++ b/01_資料初步彙整/02_路段旅行速率/旅行速率資料彙整.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="旅行速率資料彙整(三趟平均)" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="採用之路段資料彙整" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="尖峰速率" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45353,4 +45354,5193 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.4" customWidth="1" min="1" max="1"/>
+    <col width="6.5" customWidth="1" min="2" max="2"/>
+    <col width="6.5" customWidth="1" min="3" max="3"/>
+    <col width="5.2" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="11.7" customWidth="1" min="6" max="6"/>
+    <col width="24.7" customWidth="1" min="7" max="7"/>
+    <col width="24.7" customWidth="1" min="8" max="8"/>
+    <col width="24.7" customWidth="1" min="9" max="9"/>
+    <col width="24.7" customWidth="1" min="10" max="10"/>
+    <col width="5.2" customWidth="1" min="11" max="11"/>
+    <col width="119.6" customWidth="1" min="12" max="12"/>
+    <col width="15.6" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>速率調查編號</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>平假日</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>晨昏峰</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>方向</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>路線長度(公尺)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>旅行時間(秒)</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>行駛時間(秒)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>延滯時間(秒)</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>旅行速率(公里/小時)</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>行駛速率(公里/小時)</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>速限</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>原始資料</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>分頁</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>SL1-1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>570.7</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>570.7</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>51.09514631154722</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>51.09514631154722</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>SL1-1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>532.3</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>532.3</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>54.78113845575804</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>54.78113845575804</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>SL1-1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>561.7</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>537.7</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>51.91383300694321</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>54.23098381997396</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL1-1</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>541</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>541</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>53.90018484288355</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>53.90018484288355</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>SL1-1</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>583</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>551.3</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>50.01715265866209</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>52.89316161799384</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>SL1-1</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>522.7</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>522.7</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>55.78725846565907</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>55.78725846565907</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>SL1-1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>549.7</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>534.7</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>53.04711660905949</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>54.53525341312886</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>SL1-1</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>529</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>509.7</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>55.12287334593573</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>57.21012360211889</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>SL1-2</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>48.47775175644028</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>57.42024965325937</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>SL1-2</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>46.51685393258427</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>55.42168674698795</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>SL1-2</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>86.80000000000001</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>31.57894736842105</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>47.69585253456221</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>SL1-2</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>34.21487603305786</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>46.15384615384615</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>SL1-2</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>51.94479297365119</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>SL1-2</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>54.9800796812749</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>54.9800796812749</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>SL1-2</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>47.58620689655173</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>51.94479297365119</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>SL1-2</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>39.9228543876567</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>48.13953488372093</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>SL1-3</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>41.50375939849624</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>45.16363636363636</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>SL1-3</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>26.38343069569835</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>38.93416927899687</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>SL1-3</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>34.00410677618069</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>47.40458015267176</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>SL1-3</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>222.7</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>111.7</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>22.30803771890436</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>44.4762757385855</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>SL1-3</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>36.26277372262773</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>48.37390457643622</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>SL1-3</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>19.91980753809142</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>41.46911519198665</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L23" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>SL1-3</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>34.42827442827443</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>44.35714285714285</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>SL1-3</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>18.35920177383592</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>39.74400000000001</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>SL1-4</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>148</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>47.40000000000001</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>32.42579324462641</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>42.81081081081081</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>SL1-4</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>207.3</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>30.5643994211288</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>45.61555075593954</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L27" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M27" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>SL1-4</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>52.06244864420707</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>70.63545150501672</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L28" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>SL1-4</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>44.52565003513703</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L29" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M29" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>SL1-4</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>266.7</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>23.7570303712036</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>42.52348993288591</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>SL1-4</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>29.46976744186047</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>42.23999999999999</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>SL1-4</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>157.7</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>23.96369137670197</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>40.17755231452124</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>SL1-4</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>43.27868852459016</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>44.18410041841004</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>SL2-1</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>165</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>165</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>89.45454545454545</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>89.45454545454545</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>SL2-1</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>175.7</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>175.7</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>84.0068298235629</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>84.0068298235629</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L35" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>SL2-1</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>169</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>169</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>87.33727810650888</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>87.33727810650888</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>SL2-1</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>179.3</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>179.3</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>82.32013385387619</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>82.32013385387619</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M37" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>SL2-1</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>190</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>190</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>77.68421052631578</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>77.68421052631578</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>SL2-1</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>194.3</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>194.3</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>75.9650025733402</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>75.9650025733402</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>SL2-1</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>84.34285714285714</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>84.34285714285714</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>SL2-1</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L41" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M41" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>SL2-2</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>207.3</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>36.03473227206946</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>53.85724585436194</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>SL2-2</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>267</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>116.7</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>27.97752808988764</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>49.70059880239521</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M43" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>SL2-2</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>29.45583596214512</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>50.06702412868633</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>SL2-2</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>207.7</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>35.9653346172364</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>48.69621903520209</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L45" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M45" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>SL2-2</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>37.05357142857142</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>45.30018192844148</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>SL2-2</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>35.18605746585021</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>45.46561168594035</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L47" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M47" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>SL2-2</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>374.3</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>19.95725353994122</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>33.0970314576872</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M48" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>SL2-2</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>165.3</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>40.97641250685682</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>45.19056261343013</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L49" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M49" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>SL3-1</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>217.3</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>217.3</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>87.80487804878049</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>87.80487804878049</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>SL3-1</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>85.44558889386475</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>85.44558889386475</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L51" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M51" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>SL3-1</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>85.44558889386475</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>85.44558889386475</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M52" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>SL3-1</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>84.53699601240585</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>84.53699601240585</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L53" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M53" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>SL3-1</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>221</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>221</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>86.33484162895928</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>86.33484162895928</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>SL3-1</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>89.87282147903909</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>89.87282147903909</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M55" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>SL3-1</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>212.7</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>212.7</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>89.70380818053597</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>89.70380818053597</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L56" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M56" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>SL3-1</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>85.44558889386475</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>85.44558889386475</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L57" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M57" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>SL3-2</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>2905</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>154.7</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>56.92977681001634</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>67.60180995475113</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L58" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M58" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>SL3-2</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>2905</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>162</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>48.64186046511627</v>
+      </c>
+      <c r="J59" s="3" t="n">
+        <v>64.55555555555556</v>
+      </c>
+      <c r="K59" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L59" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M59" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>SL3-2</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>2905</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>165.4</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>50.42430086788814</v>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>63.22853688029021</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L60" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M60" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>SL3-2</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>2905</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>171.6</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>52.13359920239282</v>
+      </c>
+      <c r="J61" s="3" t="n">
+        <v>60.94405594405594</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L61" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M61" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>SL3-2</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>2905</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>175.3</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>59.65772960638905</v>
+      </c>
+      <c r="J62" s="3" t="n">
+        <v>60.80232558139535</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L62" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M62" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>SL3-2</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>2905</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>44.18250950570343</v>
+      </c>
+      <c r="J63" s="3" t="n">
+        <v>55.42130365659778</v>
+      </c>
+      <c r="K63" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L63" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M63" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>SL3-2</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>2905</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>219.4</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>47.66636280765725</v>
+      </c>
+      <c r="J64" s="3" t="n">
+        <v>57.55641166758393</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L64" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M64" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>SL3-2</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>2905</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>227</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>46.07048458149779</v>
+      </c>
+      <c r="J65" s="3" t="n">
+        <v>58.00332778702163</v>
+      </c>
+      <c r="K65" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L65" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M65" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>SL4-1</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>384</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>384</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="J66" s="3" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="K66" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>SL4-1</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>373.7</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>373.7</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>84.77388279368478</v>
+      </c>
+      <c r="J67" s="3" t="n">
+        <v>84.77388279368478</v>
+      </c>
+      <c r="K67" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>SL4-1</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>371.3</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>371.3</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>85.32184217613789</v>
+      </c>
+      <c r="J68" s="3" t="n">
+        <v>85.32184217613789</v>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L68" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M68" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>SL4-1</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>85.09266720386785</v>
+      </c>
+      <c r="J69" s="3" t="n">
+        <v>85.09266720386785</v>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L69" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M69" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>SL4-1</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>390.3</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>390.3</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>81.16833205226749</v>
+      </c>
+      <c r="J70" s="3" t="n">
+        <v>81.16833205226749</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>SL4-1</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>386</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>386</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>82.07253886010362</v>
+      </c>
+      <c r="J71" s="3" t="n">
+        <v>82.07253886010362</v>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L71" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M71" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>SL4-1</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>357</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>357</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>88.73949579831934</v>
+      </c>
+      <c r="J72" s="3" t="n">
+        <v>88.73949579831934</v>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L72" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M72" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>SL4-1</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>86.39214616853015</v>
+      </c>
+      <c r="J73" s="3" t="n">
+        <v>86.39214616853015</v>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L73" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M73" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>SL4-2</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>200.7</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>171.4</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>50.22421524663677</v>
+      </c>
+      <c r="J74" s="3" t="n">
+        <v>58.80980163360562</v>
+      </c>
+      <c r="K74" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L74" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M74" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>SL4-2</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>209</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>48.22966507177034</v>
+      </c>
+      <c r="J75" s="3" t="n">
+        <v>61.57605375687233</v>
+      </c>
+      <c r="K75" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L75" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M75" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>SL4-2</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>171</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>46.88372093023256</v>
+      </c>
+      <c r="J76" s="3" t="n">
+        <v>58.94736842105263</v>
+      </c>
+      <c r="K76" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L76" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M76" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>SL4-2</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>202.7</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>49.72866304884066</v>
+      </c>
+      <c r="J77" s="3" t="n">
+        <v>60.72289156626506</v>
+      </c>
+      <c r="K77" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L77" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M77" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>SL4-2</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>200.7</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>171.4</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>50.22421524663677</v>
+      </c>
+      <c r="J78" s="3" t="n">
+        <v>58.80980163360562</v>
+      </c>
+      <c r="K78" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L78" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M78" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>SL4-2</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>214</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>47.10280373831776</v>
+      </c>
+      <c r="J79" s="3" t="n">
+        <v>60.2510460251046</v>
+      </c>
+      <c r="K79" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L79" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M79" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>SL4-2</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>204.7</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>167.4</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>49.24279433317049</v>
+      </c>
+      <c r="J80" s="3" t="n">
+        <v>60.21505376344086</v>
+      </c>
+      <c r="K80" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L80" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M80" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>SL4-2</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>251.7</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>40.04767580452921</v>
+      </c>
+      <c r="J81" s="3" t="n">
+        <v>62.7255756067206</v>
+      </c>
+      <c r="K81" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L81" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M81" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>SL4-3</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>57.57085020242915</v>
+      </c>
+      <c r="J82" s="3" t="n">
+        <v>60.31813361611877</v>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L82" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M82" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>SL4-3</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>188</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>188</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>60.51063829787234</v>
+      </c>
+      <c r="J83" s="3" t="n">
+        <v>60.51063829787234</v>
+      </c>
+      <c r="K83" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L83" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M83" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>SL4-3</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>204.6</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>55.60117302052785</v>
+      </c>
+      <c r="J84" s="3" t="n">
+        <v>61.72544763971786</v>
+      </c>
+      <c r="K84" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L84" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M84" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>SL4-3</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>181.3</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>181.3</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>62.74682846111417</v>
+      </c>
+      <c r="J85" s="3" t="n">
+        <v>62.74682846111417</v>
+      </c>
+      <c r="K85" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L85" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M85" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>SL4-3</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>61.16129032258064</v>
+      </c>
+      <c r="J86" s="3" t="n">
+        <v>62.16393442622951</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L86" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M86" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>SL4-3</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>58.24884792626727</v>
+      </c>
+      <c r="J87" s="3" t="n">
+        <v>60.73678590496529</v>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L87" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M87" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>SL4-3</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>63.09484193011647</v>
+      </c>
+      <c r="J88" s="3" t="n">
+        <v>63.09484193011647</v>
+      </c>
+      <c r="K88" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L88" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M88" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>SL4-3</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>204.6</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>55.60117302052785</v>
+      </c>
+      <c r="J89" s="3" t="n">
+        <v>60.86677367576242</v>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="L89" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M89" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>SL4-4</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>75.23048555623848</v>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>75.23048555623848</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="L90" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M90" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>SL4-4</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>72.85714285714286</v>
+      </c>
+      <c r="J91" s="3" t="n">
+        <v>72.85714285714286</v>
+      </c>
+      <c r="K91" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="L91" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M91" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>SL4-4</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>75.69573283858999</v>
+      </c>
+      <c r="J92" s="3" t="n">
+        <v>75.69573283858999</v>
+      </c>
+      <c r="K92" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="L92" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M92" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>SL4-4</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>假日</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>78.11104020421187</v>
+      </c>
+      <c r="J93" s="3" t="n">
+        <v>78.11104020421187</v>
+      </c>
+      <c r="K93" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="L93" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M93" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(假日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>SL4-4</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>175.7</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>175.7</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>69.66420034149118</v>
+      </c>
+      <c r="J94" s="3" t="n">
+        <v>69.66420034149118</v>
+      </c>
+      <c r="K94" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="L94" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M94" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>SL4-4</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>昏峰</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>175.7</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>175.7</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>69.66420034149118</v>
+      </c>
+      <c r="J95" s="3" t="n">
+        <v>69.66420034149118</v>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="L95" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M95" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日昏峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>SL4-4</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>往北</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>75.0920245398773</v>
+      </c>
+      <c r="J96" s="3" t="n">
+        <v>75.0920245398773</v>
+      </c>
+      <c r="K96" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="L96" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M96" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>SL4-4</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>平日</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>晨峰</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>往南</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>68.1135225375626</v>
+      </c>
+      <c r="J97" s="3" t="n">
+        <v>68.1135225375626</v>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="L97" s="3" t="inlineStr">
+        <is>
+          <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
+        </is>
+      </c>
+      <c r="M97" s="3" t="inlineStr">
+        <is>
+          <t>資料分析(平日晨峰)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_資料初步彙整/02_路段旅行速率/旅行速率資料彙整.xlsx
+++ b/01_資料初步彙整/02_路段旅行速率/旅行速率資料彙整.xlsx
@@ -45362,7 +45362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45381,8 +45381,11 @@
     <col width="24.7" customWidth="1" min="9" max="9"/>
     <col width="24.7" customWidth="1" min="10" max="10"/>
     <col width="5.2" customWidth="1" min="11" max="11"/>
-    <col width="119.6" customWidth="1" min="12" max="12"/>
-    <col width="15.6" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="12" max="12"/>
+    <col width="11.7" customWidth="1" min="13" max="13"/>
+    <col width="11.7" customWidth="1" min="14" max="14"/>
+    <col width="119.6" customWidth="1" min="15" max="15"/>
+    <col width="15.6" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -45443,10 +45446,25 @@
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
+          <t>V/VL</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>LOS_VL1</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>LOS_VL2</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
           <t>原始資料</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>分頁</t>
         </is>
@@ -45494,12 +45512,23 @@
       <c r="K2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="n">
+        <v>1.021902926230944</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -45547,12 +45576,23 @@
       <c r="K3" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="3" t="n">
+        <v>1.095622769115161</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -45600,12 +45640,23 @@
       <c r="K4" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="n">
+        <v>1.038276660138864</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -45653,12 +45704,23 @@
       <c r="K5" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="3" t="n">
+        <v>1.078003696857671</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -45706,12 +45768,23 @@
       <c r="K6" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="n">
+        <v>1.000343053173242</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -45759,12 +45832,23 @@
       <c r="K7" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="3" t="n">
+        <v>1.115745169313181</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -45812,12 +45896,23 @@
       <c r="K8" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="n">
+        <v>1.06094233218119</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M8" s="3" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -45865,12 +45960,23 @@
       <c r="K9" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="L9" s="3" t="n">
+        <v>1.102457466918715</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -45918,12 +46024,23 @@
       <c r="K10" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="n">
+        <v>0.8079625292740046</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -45971,12 +46088,23 @@
       <c r="K11" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="3" t="n">
+        <v>0.7752808988764045</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -46024,12 +46152,23 @@
       <c r="K12" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="n">
+        <v>0.5263157894736843</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M12" s="3" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -46077,12 +46216,23 @@
       <c r="K13" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="L13" s="3" t="n">
+        <v>0.5702479338842976</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M13" s="3" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -46130,12 +46280,23 @@
       <c r="K14" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M14" s="3" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -46183,12 +46344,23 @@
       <c r="K15" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="L15" s="3" t="n">
+        <v>0.9163346613545816</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M15" s="3" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -46236,12 +46408,23 @@
       <c r="K16" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="n">
+        <v>0.7931034482758622</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M16" s="3" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -46289,12 +46472,23 @@
       <c r="K17" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L17" s="3" t="inlineStr">
+      <c r="L17" s="3" t="n">
+        <v>0.6653809064609449</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O17" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M17" s="3" t="inlineStr">
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -46342,12 +46536,23 @@
       <c r="K18" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="n">
+        <v>0.8300751879699249</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O18" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M18" s="3" t="inlineStr">
+      <c r="P18" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -46395,12 +46600,23 @@
       <c r="K19" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L19" s="3" t="inlineStr">
+      <c r="L19" s="3" t="n">
+        <v>0.5276686139139671</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M19" s="3" t="inlineStr">
+      <c r="P19" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -46448,12 +46664,23 @@
       <c r="K20" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L20" s="3" t="inlineStr">
+      <c r="L20" s="3" t="n">
+        <v>0.6800821355236139</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O20" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M20" s="3" t="inlineStr">
+      <c r="P20" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -46501,12 +46728,23 @@
       <c r="K21" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L21" s="3" t="inlineStr">
+      <c r="L21" s="3" t="n">
+        <v>0.4461607543780872</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O21" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M21" s="3" t="inlineStr">
+      <c r="P21" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -46554,12 +46792,23 @@
       <c r="K22" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L22" s="3" t="inlineStr">
+      <c r="L22" s="3" t="n">
+        <v>0.7252554744525547</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O22" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M22" s="3" t="inlineStr">
+      <c r="P22" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -46607,12 +46856,23 @@
       <c r="K23" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L23" s="3" t="inlineStr">
+      <c r="L23" s="3" t="n">
+        <v>0.3983961507618284</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O23" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M23" s="3" t="inlineStr">
+      <c r="P23" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -46660,12 +46920,23 @@
       <c r="K24" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L24" s="3" t="inlineStr">
+      <c r="L24" s="3" t="n">
+        <v>0.6885654885654886</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M24" s="3" t="inlineStr">
+      <c r="P24" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -46713,12 +46984,23 @@
       <c r="K25" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L25" s="3" t="inlineStr">
+      <c r="L25" s="3" t="n">
+        <v>0.3671840354767184</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" s="3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O25" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-3苗栗鄉道-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M25" s="3" t="inlineStr">
+      <c r="P25" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -46766,12 +47048,23 @@
       <c r="K26" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L26" s="3" t="inlineStr">
+      <c r="L26" s="3" t="n">
+        <v>0.5404298874104402</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O26" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M26" s="3" t="inlineStr">
+      <c r="P26" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -46819,12 +47112,23 @@
       <c r="K27" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L27" s="3" t="inlineStr">
+      <c r="L27" s="3" t="n">
+        <v>0.5094066570188134</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O27" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M27" s="3" t="inlineStr">
+      <c r="P27" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -46872,12 +47176,23 @@
       <c r="K28" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L28" s="3" t="inlineStr">
+      <c r="L28" s="3" t="n">
+        <v>0.8677074774034511</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O28" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M28" s="3" t="inlineStr">
+      <c r="P28" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -46925,12 +47240,23 @@
       <c r="K29" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L29" s="3" t="inlineStr">
+      <c r="L29" s="3" t="n">
+        <v>0.7420941672522839</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O29" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M29" s="3" t="inlineStr">
+      <c r="P29" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -46978,12 +47304,23 @@
       <c r="K30" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L30" s="3" t="inlineStr">
+      <c r="L30" s="3" t="n">
+        <v>0.3959505061867267</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M30" s="3" t="inlineStr">
+      <c r="P30" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -47031,12 +47368,23 @@
       <c r="K31" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L31" s="3" t="inlineStr">
+      <c r="L31" s="3" t="n">
+        <v>0.4911627906976744</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" s="3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O31" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M31" s="3" t="inlineStr">
+      <c r="P31" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -47084,12 +47432,23 @@
       <c r="K32" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L32" s="3" t="inlineStr">
+      <c r="L32" s="3" t="n">
+        <v>0.3993948562783661</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O32" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M32" s="3" t="inlineStr">
+      <c r="P32" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -47137,12 +47496,23 @@
       <c r="K33" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L33" s="3" t="inlineStr">
+      <c r="L33" s="3" t="n">
+        <v>0.721311475409836</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O33" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL1-4台13甲線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M33" s="3" t="inlineStr">
+      <c r="P33" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -47190,12 +47560,23 @@
       <c r="K34" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L34" s="3" t="inlineStr">
+      <c r="L34" s="3" t="n">
+        <v>0.9939393939393939</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O34" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M34" s="3" t="inlineStr">
+      <c r="P34" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -47243,12 +47624,23 @@
       <c r="K35" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L35" s="3" t="inlineStr">
+      <c r="L35" s="3" t="n">
+        <v>0.9334092202618099</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O35" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M35" s="3" t="inlineStr">
+      <c r="P35" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -47296,12 +47688,23 @@
       <c r="K36" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L36" s="3" t="inlineStr">
+      <c r="L36" s="3" t="n">
+        <v>0.9704142011834319</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M36" s="3" t="inlineStr">
+      <c r="P36" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -47349,12 +47752,23 @@
       <c r="K37" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L37" s="3" t="inlineStr">
+      <c r="L37" s="3" t="n">
+        <v>0.9146681539319577</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M37" s="3" t="inlineStr">
+      <c r="P37" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -47402,12 +47816,23 @@
       <c r="K38" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L38" s="3" t="inlineStr">
+      <c r="L38" s="3" t="n">
+        <v>0.863157894736842</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O38" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M38" s="3" t="inlineStr">
+      <c r="P38" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -47455,12 +47880,23 @@
       <c r="K39" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L39" s="3" t="inlineStr">
+      <c r="L39" s="3" t="n">
+        <v>0.8440555841482245</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O39" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M39" s="3" t="inlineStr">
+      <c r="P39" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -47508,12 +47944,23 @@
       <c r="K40" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L40" s="3" t="inlineStr">
+      <c r="L40" s="3" t="n">
+        <v>0.9371428571428572</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M40" s="3" t="inlineStr">
+      <c r="P40" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -47561,12 +48008,23 @@
       <c r="K41" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L41" s="3" t="inlineStr">
+      <c r="L41" s="3" t="n">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M41" s="3" t="inlineStr">
+      <c r="P41" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -47614,12 +48072,23 @@
       <c r="K42" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L42" s="3" t="inlineStr">
+      <c r="L42" s="3" t="n">
+        <v>0.5147818896009924</v>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M42" s="3" t="inlineStr">
+      <c r="P42" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -47667,12 +48136,23 @@
       <c r="K43" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L43" s="3" t="inlineStr">
+      <c r="L43" s="3" t="n">
+        <v>0.3996789727126805</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O43" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M43" s="3" t="inlineStr">
+      <c r="P43" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -47720,12 +48200,23 @@
       <c r="K44" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L44" s="3" t="inlineStr">
+      <c r="L44" s="3" t="n">
+        <v>0.4207976566020731</v>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O44" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M44" s="3" t="inlineStr">
+      <c r="P44" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -47773,12 +48264,23 @@
       <c r="K45" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L45" s="3" t="inlineStr">
+      <c r="L45" s="3" t="n">
+        <v>0.5137904945319486</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O45" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M45" s="3" t="inlineStr">
+      <c r="P45" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -47826,12 +48328,23 @@
       <c r="K46" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L46" s="3" t="inlineStr">
+      <c r="L46" s="3" t="n">
+        <v>0.5293367346938774</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M46" s="3" t="inlineStr">
+      <c r="P46" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -47879,12 +48392,23 @@
       <c r="K47" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L47" s="3" t="inlineStr">
+      <c r="L47" s="3" t="n">
+        <v>0.5026579637978602</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O47" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M47" s="3" t="inlineStr">
+      <c r="P47" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -47932,12 +48456,23 @@
       <c r="K48" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L48" s="3" t="inlineStr">
+      <c r="L48" s="3" t="n">
+        <v>0.2851036219991603</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O48" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M48" s="3" t="inlineStr">
+      <c r="P48" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -47985,12 +48520,23 @@
       <c r="K49" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L49" s="3" t="inlineStr">
+      <c r="L49" s="3" t="n">
+        <v>0.5853773215265261</v>
+      </c>
+      <c r="M49" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O49" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL2-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M49" s="3" t="inlineStr">
+      <c r="P49" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -48038,12 +48584,23 @@
       <c r="K50" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L50" s="3" t="inlineStr">
+      <c r="L50" s="3" t="n">
+        <v>0.9756097560975611</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M50" s="3" t="inlineStr">
+      <c r="P50" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -48091,12 +48648,23 @@
       <c r="K51" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L51" s="3" t="inlineStr">
+      <c r="L51" s="3" t="n">
+        <v>0.9493954321540528</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O51" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M51" s="3" t="inlineStr">
+      <c r="P51" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -48144,12 +48712,23 @@
       <c r="K52" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L52" s="3" t="inlineStr">
+      <c r="L52" s="3" t="n">
+        <v>0.9493954321540528</v>
+      </c>
+      <c r="M52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O52" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M52" s="3" t="inlineStr">
+      <c r="P52" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -48197,12 +48776,23 @@
       <c r="K53" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L53" s="3" t="inlineStr">
+      <c r="L53" s="3" t="n">
+        <v>0.9392999556933983</v>
+      </c>
+      <c r="M53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O53" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M53" s="3" t="inlineStr">
+      <c r="P53" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -48250,12 +48840,23 @@
       <c r="K54" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L54" s="3" t="inlineStr">
+      <c r="L54" s="3" t="n">
+        <v>0.9592760180995475</v>
+      </c>
+      <c r="M54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M54" s="3" t="inlineStr">
+      <c r="P54" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -48303,12 +48904,23 @@
       <c r="K55" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L55" s="3" t="inlineStr">
+      <c r="L55" s="3" t="n">
+        <v>0.9985869053226566</v>
+      </c>
+      <c r="M55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O55" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M55" s="3" t="inlineStr">
+      <c r="P55" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -48356,12 +48968,23 @@
       <c r="K56" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L56" s="3" t="inlineStr">
+      <c r="L56" s="3" t="n">
+        <v>0.9967089797837331</v>
+      </c>
+      <c r="M56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O56" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M56" s="3" t="inlineStr">
+      <c r="P56" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -48409,12 +49032,23 @@
       <c r="K57" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L57" s="3" t="inlineStr">
+      <c r="L57" s="3" t="n">
+        <v>0.9493954321540528</v>
+      </c>
+      <c r="M57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O57" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M57" s="3" t="inlineStr">
+      <c r="P57" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -48462,12 +49096,23 @@
       <c r="K58" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L58" s="3" t="inlineStr">
+      <c r="L58" s="3" t="n">
+        <v>0.9488296135002723</v>
+      </c>
+      <c r="M58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O58" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M58" s="3" t="inlineStr">
+      <c r="P58" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -48515,12 +49160,23 @@
       <c r="K59" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L59" s="3" t="inlineStr">
+      <c r="L59" s="3" t="n">
+        <v>0.8106976744186045</v>
+      </c>
+      <c r="M59" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O59" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M59" s="3" t="inlineStr">
+      <c r="P59" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -48568,12 +49224,23 @@
       <c r="K60" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L60" s="3" t="inlineStr">
+      <c r="L60" s="3" t="n">
+        <v>0.8404050144648024</v>
+      </c>
+      <c r="M60" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O60" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M60" s="3" t="inlineStr">
+      <c r="P60" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -48621,12 +49288,23 @@
       <c r="K61" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L61" s="3" t="inlineStr">
+      <c r="L61" s="3" t="n">
+        <v>0.8688933200398803</v>
+      </c>
+      <c r="M61" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O61" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M61" s="3" t="inlineStr">
+      <c r="P61" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -48674,12 +49352,23 @@
       <c r="K62" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L62" s="3" t="inlineStr">
+      <c r="L62" s="3" t="n">
+        <v>0.9942954934398175</v>
+      </c>
+      <c r="M62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O62" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M62" s="3" t="inlineStr">
+      <c r="P62" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -48727,12 +49416,23 @@
       <c r="K63" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L63" s="3" t="inlineStr">
+      <c r="L63" s="3" t="n">
+        <v>0.7363751584283905</v>
+      </c>
+      <c r="M63" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O63" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M63" s="3" t="inlineStr">
+      <c r="P63" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -48780,12 +49480,23 @@
       <c r="K64" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L64" s="3" t="inlineStr">
+      <c r="L64" s="3" t="n">
+        <v>0.7944393801276208</v>
+      </c>
+      <c r="M64" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O64" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M64" s="3" t="inlineStr">
+      <c r="P64" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -48833,12 +49544,23 @@
       <c r="K65" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="L65" s="3" t="inlineStr">
+      <c r="L65" s="3" t="n">
+        <v>0.76784140969163</v>
+      </c>
+      <c r="M65" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O65" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL3-2台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M65" s="3" t="inlineStr">
+      <c r="P65" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -48886,12 +49608,23 @@
       <c r="K66" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L66" s="3" t="inlineStr">
+      <c r="L66" s="3" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="M66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O66" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M66" s="3" t="inlineStr">
+      <c r="P66" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -48939,12 +49672,23 @@
       <c r="K67" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L67" s="3" t="inlineStr">
+      <c r="L67" s="3" t="n">
+        <v>0.9419320310409419</v>
+      </c>
+      <c r="M67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O67" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M67" s="3" t="inlineStr">
+      <c r="P67" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -48992,12 +49736,23 @@
       <c r="K68" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L68" s="3" t="inlineStr">
+      <c r="L68" s="3" t="n">
+        <v>0.9480204686237543</v>
+      </c>
+      <c r="M68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O68" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M68" s="3" t="inlineStr">
+      <c r="P68" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -49045,12 +49800,23 @@
       <c r="K69" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L69" s="3" t="inlineStr">
+      <c r="L69" s="3" t="n">
+        <v>0.9454740800429761</v>
+      </c>
+      <c r="M69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O69" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M69" s="3" t="inlineStr">
+      <c r="P69" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -49098,12 +49864,23 @@
       <c r="K70" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L70" s="3" t="inlineStr">
+      <c r="L70" s="3" t="n">
+        <v>0.9018703561363054</v>
+      </c>
+      <c r="M70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O70" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M70" s="3" t="inlineStr">
+      <c r="P70" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -49151,12 +49928,23 @@
       <c r="K71" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L71" s="3" t="inlineStr">
+      <c r="L71" s="3" t="n">
+        <v>0.9119170984455958</v>
+      </c>
+      <c r="M71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O71" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M71" s="3" t="inlineStr">
+      <c r="P71" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -49204,12 +49992,23 @@
       <c r="K72" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L72" s="3" t="inlineStr">
+      <c r="L72" s="3" t="n">
+        <v>0.9859943977591038</v>
+      </c>
+      <c r="M72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O72" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M72" s="3" t="inlineStr">
+      <c r="P72" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -49257,12 +50056,23 @@
       <c r="K73" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L73" s="3" t="inlineStr">
+      <c r="L73" s="3" t="n">
+        <v>0.9599127352058905</v>
+      </c>
+      <c r="M73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O73" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-1台61線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M73" s="3" t="inlineStr">
+      <c r="P73" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -49310,12 +50120,23 @@
       <c r="K74" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L74" s="3" t="inlineStr">
+      <c r="L74" s="3" t="n">
+        <v>1.004484304932735</v>
+      </c>
+      <c r="M74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O74" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M74" s="3" t="inlineStr">
+      <c r="P74" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -49363,12 +50184,23 @@
       <c r="K75" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L75" s="3" t="inlineStr">
+      <c r="L75" s="3" t="n">
+        <v>0.9645933014354068</v>
+      </c>
+      <c r="M75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O75" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M75" s="3" t="inlineStr">
+      <c r="P75" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -49416,12 +50248,23 @@
       <c r="K76" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L76" s="3" t="inlineStr">
+      <c r="L76" s="3" t="n">
+        <v>0.9376744186046512</v>
+      </c>
+      <c r="M76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O76" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M76" s="3" t="inlineStr">
+      <c r="P76" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -49469,12 +50312,23 @@
       <c r="K77" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L77" s="3" t="inlineStr">
+      <c r="L77" s="3" t="n">
+        <v>0.9945732609768132</v>
+      </c>
+      <c r="M77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O77" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M77" s="3" t="inlineStr">
+      <c r="P77" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -49522,12 +50376,23 @@
       <c r="K78" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L78" s="3" t="inlineStr">
+      <c r="L78" s="3" t="n">
+        <v>1.004484304932735</v>
+      </c>
+      <c r="M78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O78" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M78" s="3" t="inlineStr">
+      <c r="P78" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -49575,12 +50440,23 @@
       <c r="K79" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L79" s="3" t="inlineStr">
+      <c r="L79" s="3" t="n">
+        <v>0.9420560747663552</v>
+      </c>
+      <c r="M79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O79" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M79" s="3" t="inlineStr">
+      <c r="P79" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -49628,12 +50504,23 @@
       <c r="K80" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L80" s="3" t="inlineStr">
+      <c r="L80" s="3" t="n">
+        <v>0.9848558866634098</v>
+      </c>
+      <c r="M80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O80" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M80" s="3" t="inlineStr">
+      <c r="P80" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -49681,12 +50568,23 @@
       <c r="K81" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="L81" s="3" t="inlineStr">
+      <c r="L81" s="3" t="n">
+        <v>0.8009535160905841</v>
+      </c>
+      <c r="M81" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O81" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-2台17線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M81" s="3" t="inlineStr">
+      <c r="P81" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -49734,12 +50632,23 @@
       <c r="K82" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L82" s="3" t="inlineStr">
+      <c r="L82" s="3" t="n">
+        <v>0.8224407171775593</v>
+      </c>
+      <c r="M82" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O82" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M82" s="3" t="inlineStr">
+      <c r="P82" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -49787,12 +50696,23 @@
       <c r="K83" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L83" s="3" t="inlineStr">
+      <c r="L83" s="3" t="n">
+        <v>0.8644376899696049</v>
+      </c>
+      <c r="M83" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O83" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M83" s="3" t="inlineStr">
+      <c r="P83" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -49840,12 +50760,23 @@
       <c r="K84" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L84" s="3" t="inlineStr">
+      <c r="L84" s="3" t="n">
+        <v>0.7943024717218264</v>
+      </c>
+      <c r="M84" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O84" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M84" s="3" t="inlineStr">
+      <c r="P84" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -49893,12 +50824,23 @@
       <c r="K85" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L85" s="3" t="inlineStr">
+      <c r="L85" s="3" t="n">
+        <v>0.8963832637302024</v>
+      </c>
+      <c r="M85" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O85" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M85" s="3" t="inlineStr">
+      <c r="P85" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -49946,12 +50888,23 @@
       <c r="K86" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L86" s="3" t="inlineStr">
+      <c r="L86" s="3" t="n">
+        <v>0.8737327188940092</v>
+      </c>
+      <c r="M86" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O86" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M86" s="3" t="inlineStr">
+      <c r="P86" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -49999,12 +50952,23 @@
       <c r="K87" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L87" s="3" t="inlineStr">
+      <c r="L87" s="3" t="n">
+        <v>0.8321263989466754</v>
+      </c>
+      <c r="M87" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O87" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M87" s="3" t="inlineStr">
+      <c r="P87" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -50052,12 +51016,23 @@
       <c r="K88" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L88" s="3" t="inlineStr">
+      <c r="L88" s="3" t="n">
+        <v>0.9013548847159495</v>
+      </c>
+      <c r="M88" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O88" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M88" s="3" t="inlineStr">
+      <c r="P88" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -50105,12 +51080,23 @@
       <c r="K89" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="L89" s="3" t="inlineStr">
+      <c r="L89" s="3" t="n">
+        <v>0.7943024717218264</v>
+      </c>
+      <c r="M89" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O89" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-3台1線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M89" s="3" t="inlineStr">
+      <c r="P89" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -50158,12 +51144,23 @@
       <c r="K90" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L90" s="3" t="inlineStr">
+      <c r="L90" s="3" t="n">
+        <v>0.9403810694529809</v>
+      </c>
+      <c r="M90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O90" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M90" s="3" t="inlineStr">
+      <c r="P90" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -50211,12 +51208,23 @@
       <c r="K91" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L91" s="3" t="inlineStr">
+      <c r="L91" s="3" t="n">
+        <v>0.9107142857142858</v>
+      </c>
+      <c r="M91" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O91" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M91" s="3" t="inlineStr">
+      <c r="P91" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日昏峰)</t>
         </is>
@@ -50264,12 +51272,23 @@
       <c r="K92" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L92" s="3" t="inlineStr">
+      <c r="L92" s="3" t="n">
+        <v>0.9461966604823748</v>
+      </c>
+      <c r="M92" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O92" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M92" s="3" t="inlineStr">
+      <c r="P92" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -50317,12 +51336,23 @@
       <c r="K93" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L93" s="3" t="inlineStr">
+      <c r="L93" s="3" t="n">
+        <v>0.9763880025526485</v>
+      </c>
+      <c r="M93" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O93" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M93" s="3" t="inlineStr">
+      <c r="P93" s="3" t="inlineStr">
         <is>
           <t>資料分析(假日晨峰)</t>
         </is>
@@ -50370,12 +51400,23 @@
       <c r="K94" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L94" s="3" t="inlineStr">
+      <c r="L94" s="3" t="n">
+        <v>0.8708025042686398</v>
+      </c>
+      <c r="M94" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O94" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M94" s="3" t="inlineStr">
+      <c r="P94" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -50423,12 +51464,23 @@
       <c r="K95" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L95" s="3" t="inlineStr">
+      <c r="L95" s="3" t="n">
+        <v>0.8708025042686398</v>
+      </c>
+      <c r="M95" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O95" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M95" s="3" t="inlineStr">
+      <c r="P95" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日昏峰)</t>
         </is>
@@ -50476,12 +51528,23 @@
       <c r="K96" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L96" s="3" t="inlineStr">
+      <c r="L96" s="3" t="n">
+        <v>0.9386503067484663</v>
+      </c>
+      <c r="M96" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O96" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M96" s="3" t="inlineStr">
+      <c r="P96" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
@@ -50529,12 +51592,23 @@
       <c r="K97" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="L97" s="3" t="inlineStr">
+      <c r="L97" s="3" t="n">
+        <v>0.8514190317195325</v>
+      </c>
+      <c r="M97" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O97" s="3" t="inlineStr">
         <is>
           <t>~\台北鼎漢(B_6740)\6787臺鐵海線雙軌化綜合規劃\Technical\06_交通量調查\02_原始資料\02_路段旅行速率\SL4-4台74線-路段旅行時間.xlsx</t>
         </is>
       </c>
-      <c r="M97" s="3" t="inlineStr">
+      <c r="P97" s="3" t="inlineStr">
         <is>
           <t>資料分析(平日晨峰)</t>
         </is>
